--- a/results/I3_N5_M3_T45_C200_DepCentral_s2_res_fix.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepCentral_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.09908392284942</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.42908392284503</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.110038862201358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.110038862201358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.67000000000439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,39 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -923,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>32.99312545677591</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.99312545677591</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.49313212343961</v>
+        <v>31.95858503259002</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35.45653196483993</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.00986356044187</v>
+        <v>35.47531646959229</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>37.82130316684417</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,48 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>43.65499999999985</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>37.03499999999985</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>41.29499999999985</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.50999999999986</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>43.86999999999986</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>154.9200000000004</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>152.65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.9800000000004</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>156.3850000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.7900000000004</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>41.17</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.71499999999934</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37.86</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>47.65</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>45.31999999999935</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3400000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>159.205</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4300000000003</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9950000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>199.5750000000011</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>203.5550000000007</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>184.9550000000011</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>203.4850000000008</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>203.7950000000011</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.9200000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>152.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>157.9800000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.3850000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>159.7900000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>199.5750000000011</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38">
@@ -1489,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.5550000000007</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39">
@@ -1500,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>184.9550000000011</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40">
@@ -1511,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>203.4850000000008</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41">
@@ -1522,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.7950000000011</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42">
@@ -1533,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44">
@@ -1555,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45">
@@ -1566,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46">
@@ -1577,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.555000000000746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1712,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.485000000000724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1723,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.795000000000726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2103,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2128,39 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
